--- a/колебания в контуре/R1500_Om.xlsx
+++ b/колебания в контуре/R1500_Om.xlsx
@@ -16,6 +16,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>f, Гц</t>
+  </si>
+  <si>
+    <t>UC, В</t>
+  </si>
+  <si>
+    <t>UL, В</t>
+  </si>
+  <si>
+    <t>UR, В</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,7 +70,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +86,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +126,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +166,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +198,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +348,729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2">
+        <v>0.254</v>
+      </c>
+      <c r="C2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D2">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="C3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1500</v>
+      </c>
+      <c r="B4">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2000</v>
+      </c>
+      <c r="B5">
+        <v>0.371</v>
+      </c>
+      <c r="C5">
+        <v>0.128</v>
+      </c>
+      <c r="D5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2500</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.27</v>
+      </c>
+      <c r="D6">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3000</v>
+      </c>
+      <c r="B7">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.61</v>
+      </c>
+      <c r="D7">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3185</v>
+      </c>
+      <c r="B8">
+        <v>0.91</v>
+      </c>
+      <c r="C8">
+        <v>0.8</v>
+      </c>
+      <c r="D8">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3195</v>
+      </c>
+      <c r="B9">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="C9">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="D9">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3205</v>
+      </c>
+      <c r="B10">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="C10">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D10">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3215</v>
+      </c>
+      <c r="B11">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="C11">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="D11">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3225</v>
+      </c>
+      <c r="B12">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="C12">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D12">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3235</v>
+      </c>
+      <c r="B13">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="C13">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3245</v>
+      </c>
+      <c r="B14">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="C14">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3255</v>
+      </c>
+      <c r="B15">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="C15">
+        <v>0.873</v>
+      </c>
+      <c r="D15">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3265</v>
+      </c>
+      <c r="B16">
+        <v>0.95</v>
+      </c>
+      <c r="C16">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3275</v>
+      </c>
+      <c r="B17">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="C17">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3285</v>
+      </c>
+      <c r="B18">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="C18">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="D18">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3295</v>
+      </c>
+      <c r="B19">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="C19">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="D19">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3305</v>
+      </c>
+      <c r="B20">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="C20">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D20">
+        <v>0.2334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3315</v>
+      </c>
+      <c r="B21">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="C21">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="D21">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3325</v>
+      </c>
+      <c r="B22">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="C22">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="D22">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3335</v>
+      </c>
+      <c r="B23">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="C23">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="D23">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3345</v>
+      </c>
+      <c r="B24">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="C24">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="D24">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3355</v>
+      </c>
+      <c r="B25">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="C25">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="D25">
+        <v>0.23810000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3365</v>
+      </c>
+      <c r="B26">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="C26">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D26">
+        <v>0.23849999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3375</v>
+      </c>
+      <c r="B27">
+        <v>0.96</v>
+      </c>
+      <c r="C27">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="D27">
+        <v>0.23860000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3385</v>
+      </c>
+      <c r="B28">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C28">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D28">
+        <v>0.2387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3395</v>
+      </c>
+      <c r="B29">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="C29">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="D29">
+        <v>0.23860000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3405</v>
+      </c>
+      <c r="B30">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="C30">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D30">
+        <v>0.23860000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3415</v>
+      </c>
+      <c r="B31">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="C31">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="D31">
+        <v>0.23849999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3425</v>
+      </c>
+      <c r="B32">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="C32">
+        <v>0.97</v>
+      </c>
+      <c r="D32">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3435</v>
+      </c>
+      <c r="B33">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C33">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="D33">
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3445</v>
+      </c>
+      <c r="B34">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="C34">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D34">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3455</v>
+      </c>
+      <c r="B35">
+        <v>0.93</v>
+      </c>
+      <c r="C35">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="D35">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3465</v>
+      </c>
+      <c r="B36">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="C36">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D36">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3475</v>
+      </c>
+      <c r="B37">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="C37">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="D37">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3485</v>
+      </c>
+      <c r="B38">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="C38">
+        <v>0.97</v>
+      </c>
+      <c r="D38">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3495</v>
+      </c>
+      <c r="B39">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="C39">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="D39">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3505</v>
+      </c>
+      <c r="B40">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="C40">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="D40">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3515</v>
+      </c>
+      <c r="B41">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="C41">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="D41">
+        <v>0.22950000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3525</v>
+      </c>
+      <c r="B42">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="C42">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="D42">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3535</v>
+      </c>
+      <c r="B43">
+        <v>0.875</v>
+      </c>
+      <c r="C43">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="D43">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3545</v>
+      </c>
+      <c r="B44">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="C44">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D44">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3555</v>
+      </c>
+      <c r="B45">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="C45">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="D45">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4000</v>
+      </c>
+      <c r="B46">
+        <v>0.502</v>
+      </c>
+      <c r="C46">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="D46">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4500</v>
+      </c>
+      <c r="B47">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="C47">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D47">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5000</v>
+      </c>
+      <c r="B48">
+        <v>0.2</v>
+      </c>
+      <c r="C48">
+        <v>0.439</v>
+      </c>
+      <c r="D48">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5500</v>
+      </c>
+      <c r="B49">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C49">
+        <v>0.39</v>
+      </c>
+      <c r="D49">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>6000</v>
+      </c>
+      <c r="B50">
+        <v>0.113</v>
+      </c>
+      <c r="C50">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D50">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>6500</v>
+      </c>
+      <c r="B51">
+        <v>0.09</v>
+      </c>
+      <c r="C51">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D51">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>